--- a/medicine/Enfance/Langelot_et_les_Exterminateurs/Langelot_et_les_Exterminateurs.xlsx
+++ b/medicine/Enfance/Langelot_et_les_Exterminateurs/Langelot_et_les_Exterminateurs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Langelot et les Exterminateurs est le vingtième roman de la série Langelot, écrite par le Lieutenant X (Vladimir Volkoff). Il est paru pour la première fois en juillet 1973, dans la Bibliothèque verte.
@@ -512,7 +524,9 @@
           <t>Principaux personnages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les « gentils »
 Langelot : orphelin, agent du Service National d'Information Fonctionnelle, blond, 1,68 m, mince, « les traits menus mais durs ».
@@ -550,7 +564,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur ordre du service Intendance, Langelot doit acheter divers vêtements pour des agents en mission. Il se rend dans des magasins de vêtements où il acquiert notamment une vieille veste rouge de marque « J. P. Allen. » Quelle n'est pas sa surprise de découvrir que la doublure contient un message évoquant un appel au secours : « Police help ! Christiane Salbris apt 92 Vilabella 613 (beware Chapuzeau). »
 Dans le cadre d'une collaboration entre les services « Action » et « Protection » intitulée Mission : Farce, Langelot est envoyé avec son collègue le lieutenant Pierre Touzier, dit « Pierrot la Marmite », en Floride, lieu de séquestration supposé de l'auteur du message, avec pour mission de ramener en France Mme Salbris et M. Chapuzeau. En effet ces deux personnes travaillent pour la défense nationale dans le cadre du développement des armes bactériologiques et des moyens de leur faire face. Elles ont disparu depuis deux années et l'éclaircissement de leurs activités s'impose.
@@ -585,16 +601,18 @@
           <t>Autour du roman</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Un passage illustre avec humour, le manque de romantisme de Langelot :
 Ils s'assirent sur des chaises longues. Le soir tombait. La mer devant eux virait au violet. Les vagues léchaient paresseusement le sable. Une brise un peu vive ébouriffait les feuilles des palmiers.
 – Vous avez l'air bien rêveur, dit Christiane.
-– Je pense au sous-marin qui repartira à vide ce soir ou demain, répondit Langelot[1].
+– Je pense au sous-marin qui repartira à vide ce soir ou demain, répondit Langelot.
 Dans ce roman, l'[réf. nécessaire]antenne nord-américaine du SNIF est basée à Miami ; dans Langelot à la Maison-Blanche, elle se retrouvera à Washington. Cette antenne n'apparaît pas lorsque Langelot opère au Canada, dans Langelot et le Gratte-Ciel.
-Dans Langelot et les Exterminateurs  Snif, le chef du SNIF, est doté du grade de colonel[2], alors qu'il est signalé le plus souvent comme général. Dans Langelot kidnappé, trois romans après celui-ci, il est général deux étoiles[3].
-Le sous-marin de la Marine française qui participe à cette mission s'appelle Bretagne[4]. Aucun sous-marin français n'a porté ce nom.
-Langelot, au moyen d'un bloc de télécommande acheté dans le commerce[5], déclenche l'ouverture ou la fermeture de la barrière électrifiée qui entoure les laboratoires Trux, sans se soucier de la conformité de la fréquence hertzienne ou de la longueur d'onde de sa télécommande avec celle du récepteur installé dans le mécanisme[6], conditions pourtant nécessaires.</t>
+Dans Langelot et les Exterminateurs  Snif, le chef du SNIF, est doté du grade de colonel, alors qu'il est signalé le plus souvent comme général. Dans Langelot kidnappé, trois romans après celui-ci, il est général deux étoiles.
+Le sous-marin de la Marine française qui participe à cette mission s'appelle Bretagne. Aucun sous-marin français n'a porté ce nom.
+Langelot, au moyen d'un bloc de télécommande acheté dans le commerce, déclenche l'ouverture ou la fermeture de la barrière électrifiée qui entoure les laboratoires Trux, sans se soucier de la conformité de la fréquence hertzienne ou de la longueur d'onde de sa télécommande avec celle du récepteur installé dans le mécanisme, conditions pourtant nécessaires.</t>
         </is>
       </c>
     </row>
@@ -622,7 +640,9 @@
           <t>Les différentes éditions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1973 - Hachette, Bibliothèque verte (français, version originale). Illustré par Maurice Paulin.
 Réédition en 1981 (même format).</t>
